--- a/Bloque1/Pseudocódigos/PruebaDeEscritorio.xlsx
+++ b/Bloque1/Pseudocódigos/PruebaDeEscritorio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Desktop\Clases Progra\Bloque 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Desktop\Clases Progra\Repositorio\Bloque1\Pseudocódigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27540395-7DF0-41E6-8F89-2B17D391F942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87A925-8208-4E30-B3BD-0ED996C15CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1560AB45-3A50-4655-BC53-257EEBDF8A34}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>FUNCIÓN PRINCIPAL:</t>
   </si>
@@ -227,27 +227,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>0x109</t>
-  </si>
-  <si>
-    <t>0x110</t>
-  </si>
-  <si>
-    <t>0x111</t>
-  </si>
-  <si>
-    <t>0x112</t>
-  </si>
-  <si>
-    <t>0x113</t>
-  </si>
-  <si>
-    <t>0x114</t>
-  </si>
-  <si>
-    <t>0x115</t>
   </si>
   <si>
     <t>i (0x30C)</t>
@@ -257,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +266,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,6 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96191E5-2AEC-497A-B584-E9F1F37027FB}">
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1123,7 @@
         <v>60</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>62</v>
@@ -1373,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -1412,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -1445,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M13" s="15">
         <v>1</v>
@@ -1478,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M14" s="15">
         <v>2</v>
@@ -1511,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M15" s="15">
         <v>3</v>
@@ -1544,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M16" s="15">
         <v>4</v>
@@ -1577,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="M17" s="15">
         <v>5</v>
@@ -1667,8 +1655,12 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>